--- a/data/trans_bre/P11_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,12; 17,06</t>
+          <t>9,7; 17,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,94; 21,78</t>
+          <t>13,13; 21,52</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,26; 24,06</t>
+          <t>14,44; 23,51</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,37; 24,92</t>
+          <t>15,18; 24,66</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,07; 55,57</t>
+          <t>27,33; 56,8</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,75; 66,48</t>
+          <t>34,29; 66,74</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>38,6; 77,14</t>
+          <t>40,0; 74,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,67; 60,44</t>
+          <t>32,02; 60,88</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,37; 9,39</t>
+          <t>4,16; 9,32</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,25; 10,6</t>
+          <t>5,29; 10,46</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 7,67</t>
+          <t>2,33; 7,49</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 22,42</t>
+          <t>4,94; 21,25</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,28; 89,26</t>
+          <t>32,41; 89,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,96; 88,69</t>
+          <t>36,77; 86,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,63; 53,66</t>
+          <t>13,33; 52,1</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,48; 91,1</t>
+          <t>19,33; 88,73</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 11,36</t>
+          <t>2,5; 10,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 5,03</t>
+          <t>-4,14; 4,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 10,6</t>
+          <t>1,57; 10,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 11,26</t>
+          <t>2,5; 10,87</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,05; 134,44</t>
+          <t>17,42; 127,02</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,73; 59,28</t>
+          <t>-31,82; 51,85</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,1; 139,99</t>
+          <t>14,05; 131,56</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,27; 66,46</t>
+          <t>11,8; 65,5</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,0; 13,21</t>
+          <t>8,9; 13,07</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,01; 14,38</t>
+          <t>10,45; 14,59</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,16; 12,37</t>
+          <t>8,23; 12,45</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,41; 18,56</t>
+          <t>9,69; 18,74</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,29; 75,37</t>
+          <t>47,02; 75,49</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,52; 80,98</t>
+          <t>52,29; 81,85</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,84; 71,05</t>
+          <t>42,26; 69,8</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,86; 71,63</t>
+          <t>35,06; 72,09</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P11_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Estudios-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,7; 17,55</t>
+          <t>9,31; 17,53</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,13; 21,52</t>
+          <t>13,19; 21,87</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,44; 23,51</t>
+          <t>14,76; 24,32</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>27,33; 56,8</t>
+          <t>26,19; 55,98</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,29; 66,74</t>
+          <t>36,01; 68,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>40,0; 74,62</t>
+          <t>40,75; 79,5</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,16; 9,32</t>
+          <t>4,34; 9,34</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,29; 10,46</t>
+          <t>5,31; 10,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,33; 7,49</t>
+          <t>2,53; 7,42</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>32,41; 89,19</t>
+          <t>34,19; 89,5</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,77; 86,78</t>
+          <t>38,11; 85,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,33; 52,1</t>
+          <t>15,29; 51,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 10,78</t>
+          <t>2,54; 11,25</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,14; 4,56</t>
+          <t>-4,21; 5,06</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,57; 10,19</t>
+          <t>1,66; 10,06</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,42; 127,02</t>
+          <t>18,77; 136,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,82; 51,85</t>
+          <t>-31,67; 59,74</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,05; 131,56</t>
+          <t>11,61; 124,78</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,9; 13,07</t>
+          <t>8,9; 13,03</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,45; 14,59</t>
+          <t>10,32; 14,57</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,23; 12,45</t>
+          <t>8,09; 12,36</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>47,02; 75,49</t>
+          <t>46,81; 76,51</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>52,29; 81,85</t>
+          <t>51,71; 81,99</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>42,26; 69,8</t>
+          <t>41,11; 69,75</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">

--- a/data/trans_bre/P11_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Estudios-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que el dolor dificultó su trabajo habitual las últimas 4 semanas</t>
+          <t>Población a la que el dolor le dificultó su trabajo habitual las últimas 4 semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,31; 17,53</t>
+          <t>9,12; 17,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>13,19; 21,87</t>
+          <t>12,94; 21,78</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,76; 24,32</t>
+          <t>14,26; 24,06</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,18; 24,66</t>
+          <t>15,37; 24,92</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,19; 55,98</t>
+          <t>26,07; 55,57</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>36,01; 68,0</t>
+          <t>34,75; 66,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>40,75; 79,5</t>
+          <t>38,6; 77,14</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,02; 60,88</t>
+          <t>31,67; 60,44</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,34; 9,34</t>
+          <t>4,37; 9,39</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,31; 10,35</t>
+          <t>5,25; 10,6</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,53; 7,42</t>
+          <t>2,58; 7,67</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,94; 21,25</t>
+          <t>5,21; 22,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,19; 89,5</t>
+          <t>34,28; 89,26</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>38,11; 85,68</t>
+          <t>36,96; 88,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,29; 51,73</t>
+          <t>15,63; 53,66</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>19,33; 88,73</t>
+          <t>20,48; 91,1</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,54; 11,25</t>
+          <t>2,24; 11,36</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 5,06</t>
+          <t>-3,91; 5,03</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,66; 10,06</t>
+          <t>2,25; 10,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,5; 10,87</t>
+          <t>2,83; 11,26</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>18,77; 136,06</t>
+          <t>17,05; 134,44</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-31,67; 59,74</t>
+          <t>-30,73; 59,28</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>11,61; 124,78</t>
+          <t>19,1; 139,99</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>11,8; 65,5</t>
+          <t>13,27; 66,46</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>8,9; 13,03</t>
+          <t>9,0; 13,21</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,32; 14,57</t>
+          <t>10,01; 14,38</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,09; 12,36</t>
+          <t>8,16; 12,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,69; 18,74</t>
+          <t>9,41; 18,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,81; 76,51</t>
+          <t>46,29; 75,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>51,71; 81,99</t>
+          <t>50,52; 80,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,11; 69,75</t>
+          <t>41,84; 71,05</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>35,06; 72,09</t>
+          <t>33,86; 71,63</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P11_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Estudios-trans_bre.xlsx
@@ -635,7 +635,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,7</t>
+          <t>20,11</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -655,7 +655,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>44,28%</t>
+          <t>45,57%</t>
         </is>
       </c>
     </row>
@@ -683,7 +683,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,37; 24,92</t>
+          <t>15,62; 25,31</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -703,7 +703,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>31,67; 60,44</t>
+          <t>32,47; 62,35</t>
         </is>
       </c>
     </row>
@@ -735,7 +735,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>9,57</t>
+          <t>14,04</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -755,7 +755,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>39,07%</t>
+          <t>62,94%</t>
         </is>
       </c>
     </row>
@@ -783,7 +783,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,21; 22,42</t>
+          <t>5,69; 36,27</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -803,7 +803,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,48; 91,1</t>
+          <t>23,67; 182,34</t>
         </is>
       </c>
     </row>
@@ -835,7 +835,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,79</t>
+          <t>7,01</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -855,7 +855,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>36,16%</t>
+          <t>37,17%</t>
         </is>
       </c>
     </row>
@@ -883,7 +883,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,83; 11,26</t>
+          <t>2,79; 11,03</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -903,7 +903,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,27; 66,46</t>
+          <t>13,86; 67,56</t>
         </is>
       </c>
     </row>
@@ -935,7 +935,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,52</t>
+          <t>15,29</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>47,13%</t>
+          <t>61,36%</t>
         </is>
       </c>
     </row>
@@ -983,7 +983,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,41; 18,56</t>
+          <t>9,76; 26,51</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1003,7 +1003,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>33,86; 71,63</t>
+          <t>36,29; 122,49</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P11_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P11_R-Estudios-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,12; 17,06</t>
+          <t>9,33; 17,44</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>12,94; 21,78</t>
+          <t>12,89; 21,46</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>14,26; 24,06</t>
+          <t>14,13; 23,5</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>15,62; 25,31</t>
+          <t>15,28; 25,13</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>26,07; 55,57</t>
+          <t>25,84; 55,54</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>34,75; 66,48</t>
+          <t>34,7; 67,17</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>38,6; 77,14</t>
+          <t>38,05; 73,69</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>32,47; 62,35</t>
+          <t>32,25; 61,38</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,37; 9,39</t>
+          <t>4,42; 9,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,25; 10,6</t>
+          <t>5,25; 10,31</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,58; 7,67</t>
+          <t>2,53; 7,5</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,69; 36,27</t>
+          <t>5,68; 32,39</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>34,28; 89,26</t>
+          <t>35,54; 92,92</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>36,96; 88,69</t>
+          <t>36,57; 86,79</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>15,63; 53,66</t>
+          <t>15,45; 52,86</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>23,67; 182,34</t>
+          <t>23,32; 169,4</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,24; 11,36</t>
+          <t>2,36; 11,28</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-3,91; 5,03</t>
+          <t>-3,83; 5,11</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,25; 10,6</t>
+          <t>2,03; 10,44</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>2,79; 11,03</t>
+          <t>2,57; 11,13</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,05; 134,44</t>
+          <t>17,31; 135,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-30,73; 59,28</t>
+          <t>-29,74; 65,02</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>19,1; 139,99</t>
+          <t>15,74; 132,14</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,86; 67,56</t>
+          <t>12,16; 67,21</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>9,0; 13,21</t>
+          <t>8,95; 13,1</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,01; 14,38</t>
+          <t>10,35; 14,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8,16; 12,37</t>
+          <t>8,06; 12,29</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>9,76; 26,51</t>
+          <t>10,14; 29,29</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>46,29; 75,37</t>
+          <t>46,65; 76,52</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>50,52; 80,98</t>
+          <t>51,62; 81,49</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>41,84; 71,05</t>
+          <t>40,97; 69,62</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>36,29; 122,49</t>
+          <t>38,98; 141,31</t>
         </is>
       </c>
     </row>
